--- a/data/trans_bre/P32A-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P32A-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.8028887365412265</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.775894700102619</v>
+        <v>-0.7758947001026189</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-1</v>
@@ -649,7 +649,7 @@
         <v>0.769737909217471</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.3677157599136586</v>
+        <v>-0.3677157599136585</v>
       </c>
     </row>
     <row r="5">
@@ -660,16 +660,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.578900269214418</v>
+        <v>-1.603018431456786</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.609582850439937</v>
+        <v>-3.611340331196469</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.138161767354959</v>
+        <v>-1.376588439533433</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.972823582790386</v>
+        <v>-2.986239229068673</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="n">
@@ -691,21 +691,21 @@
         <v>0</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5449011486807179</v>
+        <v>0.5599554630560603</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.326973333917691</v>
+        <v>5.126122084865433</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.408345999617007</v>
+        <v>1.592151916105814</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="n">
-        <v>1.830272190597092</v>
+        <v>2.723293140925484</v>
       </c>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>1.57211681860059</v>
+        <v>2.324027925664411</v>
       </c>
     </row>
     <row r="7">
@@ -729,7 +729,7 @@
         <v>0.9096722683963903</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>1.668148163527881</v>
+        <v>1.66814816352788</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-1</v>
@@ -741,7 +741,7 @@
         <v>0.695783613357853</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1.447434372069908</v>
+        <v>1.447434372069907</v>
       </c>
     </row>
     <row r="8">
@@ -752,22 +752,24 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.728936426501627</v>
+        <v>-3.579447347566075</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-3.943191924317494</v>
+        <v>-4.169618400796396</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.5509533863428</v>
+        <v>-1.266809505077255</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.7813602161596616</v>
+        <v>-0.5940668297994198</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
-      <c r="I8" s="6" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6631609422226968</v>
+        <v>-0.6075882408769258</v>
       </c>
     </row>
     <row r="9">
@@ -778,16 +780,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.4321925965815327</v>
+        <v>-0.4292985207067086</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.311924862044333</v>
+        <v>1.355195987659066</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.684714551418951</v>
+        <v>3.852438278109894</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.309697412429117</v>
+        <v>4.753953802048988</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
@@ -815,7 +817,7 @@
         <v>-0.2730660012313754</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.819872851548794</v>
+        <v>-1.819872851548793</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-1</v>
@@ -838,16 +840,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.95347786005325</v>
+        <v>-2.861481486273944</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.280516124385207</v>
+        <v>-6.526165889759447</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.954753839713169</v>
+        <v>-2.971411859344567</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.060681901360358</v>
+        <v>-3.866926340118115</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
@@ -864,21 +866,21 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.2947227539864841</v>
+        <v>-0.4679929315674535</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.792643604778645</v>
+        <v>-1.805183393671465</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.346077113324971</v>
+        <v>6.571044820649108</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.7025898916129112</v>
+        <v>-0.3880309996362386</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="n">
-        <v>10.71809657947411</v>
+        <v>7.863309119914144</v>
       </c>
       <c r="J12" s="6" t="inlineStr"/>
     </row>
@@ -903,7 +905,7 @@
         <v>-1.322289352245675</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.7378936224072579</v>
+        <v>0.7378936224072575</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-1</v>
@@ -915,7 +917,7 @@
         <v>-0.7795124241113537</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3478525674040814</v>
+        <v>0.3478525674040812</v>
       </c>
     </row>
     <row r="14">
@@ -926,16 +928,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.652777771679461</v>
+        <v>-2.684233191963777</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.194437125472962</v>
+        <v>-3.058115473579997</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-2.529624779455836</v>
+        <v>-2.548541757469922</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-1.580527643710067</v>
+        <v>-1.434369438618708</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
@@ -945,7 +947,7 @@
         <v>-1</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6595724343370127</v>
+        <v>-0.6352430440317069</v>
       </c>
     </row>
     <row r="15">
@@ -956,26 +958,26 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-0.7124483439925124</v>
+        <v>-0.6976697656063119</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2012128250457301</v>
+        <v>0.4409642089544945</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-0.0509978240221541</v>
+        <v>0.05137587725098954</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.267150501109023</v>
+        <v>4.376243801965226</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>0.4842733500333549</v>
+        <v>0.646584101447585</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.17239023137275</v>
+        <v>0.8052892280942359</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2.941557533392996</v>
+        <v>2.946697034987631</v>
       </c>
     </row>
     <row r="16">
@@ -1022,16 +1024,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.452960556667022</v>
+        <v>-1.420180276091825</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.188272750915542</v>
+        <v>-4.149800260251426</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.59823430745811</v>
+        <v>-5.505577727609174</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.221756271141526</v>
+        <v>-2.382283425491238</v>
       </c>
       <c r="G17" s="6" t="inlineStr"/>
       <c r="H17" s="6" t="n">
@@ -1041,7 +1043,7 @@
         <v>-1</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.8022187306924554</v>
+        <v>-0.7885867070586305</v>
       </c>
     </row>
     <row r="18">
@@ -1052,26 +1054,26 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.263486838618749</v>
+        <v>3.66230912520356</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6400006161913664</v>
+        <v>0.6033224312517336</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.794135388818802</v>
+        <v>-0.6940101896934444</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.003380504866809</v>
+        <v>1.910005819148425</v>
       </c>
       <c r="G18" s="6" t="inlineStr"/>
       <c r="H18" s="6" t="n">
-        <v>0.7617561524812101</v>
+        <v>0.8475199566623454</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7794217377601078</v>
+        <v>0.469972448051473</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>2.79473667298013</v>
+        <v>2.280911119618695</v>
       </c>
     </row>
     <row r="19">
@@ -1125,17 +1127,19 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-4.885194671417388</v>
+        <v>-5.560687879575696</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-3.930320188627898</v>
+        <v>-3.775076065387621</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
-      <c r="I20" s="6" t="inlineStr"/>
+      <c r="I20" s="6" t="n">
+        <v>-0.8808833399780958</v>
+      </c>
       <c r="J20" s="6" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1146,20 +1150,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>2.710879629622925</v>
+        <v>2.334405286356143</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.176703638993898</v>
+        <v>0.8417743376165219</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.99703504632372</v>
+        <v>2.065625257882576</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7.988392156035793</v>
+        <v>8.753337851892518</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
-      <c r="I21" s="6" t="inlineStr"/>
+      <c r="I21" s="6" t="n">
+        <v>3.192867594980509</v>
+      </c>
       <c r="J21" s="6" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1183,7 +1189,7 @@
         <v>-0.649868358466258</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2280268687656975</v>
+        <v>0.2280268687656978</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.6905830139728057</v>
@@ -1195,7 +1201,7 @@
         <v>-0.3240828807286287</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.1261680168630986</v>
+        <v>0.1261680168630988</v>
       </c>
     </row>
     <row r="23">
@@ -1206,28 +1212,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.319703480420518</v>
+        <v>-1.304824949292403</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.639511413177487</v>
+        <v>-2.58227976641657</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.490235386592704</v>
+        <v>-1.554649975194917</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.7654145689713764</v>
+        <v>-0.8260188063832916</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.9261933283481076</v>
+        <v>-1</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.8582739285492265</v>
+        <v>-0.8498224387079728</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.6419606386436724</v>
+        <v>-0.6598505106582584</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.3870672719598012</v>
+        <v>-0.3897892919626205</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1244,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.1768991078695021</v>
+        <v>-0.1049704997986936</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.6566003498805999</v>
+        <v>-0.775872129965491</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4075522334116686</v>
+        <v>0.4075065674661696</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.459559077423076</v>
+        <v>1.696612552430449</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.09143257282602307</v>
+        <v>0.005745863851095378</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.2616487715390673</v>
+        <v>-0.2577474883276829</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2905889856132911</v>
+        <v>0.2852950009427524</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.001691766162099</v>
+        <v>1.17842929482417</v>
       </c>
     </row>
     <row r="25">
